--- a/PFAS_STEEP_identifiers.xlsx
+++ b/PFAS_STEEP_identifiers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johanna.ganglbauer\archive\code\environmental_sample_data_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB326C-F55C-48DD-B5B4-FE69290FFC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DD5F3-6A0A-45F4-8C9E-2DDC73D6DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="38580" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STEEP PFAS identifiers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>CAS</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Perfluoro-1-hexanesulfonate</t>
   </si>
   <si>
-    <t>L-PFHxS</t>
-  </si>
-  <si>
     <t>https://pubchem.ncbi.nlm.nih.gov/compound/67734</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>Perfluoro-1-octanesulfonate</t>
   </si>
   <si>
-    <t>L-PFOS</t>
-  </si>
-  <si>
     <t>https://pubchem.ncbi.nlm.nih.gov/compound/74483</t>
   </si>
   <si>
@@ -735,15 +729,9 @@
     <t>PFPeS</t>
   </si>
   <si>
-    <t>Br-PFHxS</t>
-  </si>
-  <si>
     <t>PFHpS</t>
   </si>
   <si>
-    <t>Br-PFOS</t>
-  </si>
-  <si>
     <t>MeFBSA</t>
   </si>
   <si>
@@ -756,18 +744,6 @@
     <t>FHpSA</t>
   </si>
   <si>
-    <t>L-N-MeFOSAA</t>
-  </si>
-  <si>
-    <t>Br-N-MeFOSAA</t>
-  </si>
-  <si>
-    <t>L-N-EtFOSAA</t>
-  </si>
-  <si>
-    <t>Br-N-EtFOSAA</t>
-  </si>
-  <si>
     <t>DONA</t>
   </si>
   <si>
@@ -961,6 +937,24 @@
   </si>
   <si>
     <t>Synonyms</t>
+  </si>
+  <si>
+    <t>L-N-MeFOSAA, Br-N-MeFOSAA</t>
+  </si>
+  <si>
+    <t>L-N-EtFOSAA, Br-N-EtFOSAA</t>
+  </si>
+  <si>
+    <t>PFOS</t>
+  </si>
+  <si>
+    <t>L-PFOS, Br-PFOS</t>
+  </si>
+  <si>
+    <t>PFHxS</t>
+  </si>
+  <si>
+    <t>L-PFHxS, Br-PFHxS</t>
   </si>
 </sst>
 </file>
@@ -1034,27 +1028,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1066,29 +1048,9 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1096,95 +1058,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,1104 +1463,1126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="F1" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="F2" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="F3" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>308</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E48" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="D50" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="D55" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="C58" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="36" t="s">
+      <c r="D58" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="29" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="8" t="s">
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="26" t="s">
-        <v>304</v>
-      </c>
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 F6">
+  <conditionalFormatting sqref="C1:C42 C45:C1048576 F6">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
@@ -2667,16 +2644,16 @@
     <hyperlink ref="D50" r:id="rId50" xr:uid="{7902B266-5947-4450-9509-288420B97518}"/>
     <hyperlink ref="D51" r:id="rId51" xr:uid="{A5CEFABD-046D-4926-AFF3-C9C3D9A9FD4B}"/>
     <hyperlink ref="A51" r:id="rId52" display="https://commonchemistry.cas.org/detail?cas_rn=27854-31-5" xr:uid="{FF753CBB-5EAD-4D9E-9D15-8BB5157ED9BF}"/>
-    <hyperlink ref="D55" r:id="rId53" xr:uid="{92BBDF3F-4E8F-4963-AB3C-CD086F10343B}"/>
-    <hyperlink ref="B55" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/pcsubstance/?term=%22N-Methylperfluorobutanesulfonamide%22%5bCompleteSynonym%5d%20AND%20109968%5bStandardizedCID%5d" xr:uid="{A33A1726-513A-4C38-B714-02E3B0953908}"/>
-    <hyperlink ref="B56" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/pcsubstance/?term=%22N-ethyl%20perfluorobutane%20sulfonamide%22%5bCompleteSynonym%5d%20AND%2014661392%5bStandardizedCID%5d" xr:uid="{803FD2A4-E7EA-4B0B-AC19-150B16211E17}"/>
-    <hyperlink ref="D56" r:id="rId56" xr:uid="{C0023813-88B3-47D8-BD42-09B436F67B47}"/>
-    <hyperlink ref="D57" r:id="rId57" xr:uid="{2B495ACD-754A-448A-ABB1-BEC8F41A09DD}"/>
-    <hyperlink ref="D58" r:id="rId58" xr:uid="{D8FDA622-3F10-4FCF-8D9A-A4B4351DDEB9}"/>
-    <hyperlink ref="D61" r:id="rId59" xr:uid="{752AA5BC-C0E9-423B-95B7-60FFB3480F46}"/>
-    <hyperlink ref="D62" r:id="rId60" xr:uid="{F34326F1-53D0-4A7E-8ADE-9DDF6DC6D3C7}"/>
-    <hyperlink ref="B62" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/pcsubstance/?term=%22N-%5B3-(Dimethylamino)propyl%5D%20Perfluorohexanesulfonamide%20(%3E85%25)%22%5bCompleteSynonym%5d%20AND%20111913%5bStandardizedCID%5d" xr:uid="{DFD6CECD-7408-4454-B1A4-F57915391083}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://commonchemistry.cas.org/detail?cas_rn=50598-28-2" xr:uid="{9BB17CBF-CCC0-4DB2-B5A6-91053D1E0834}"/>
+    <hyperlink ref="D53" r:id="rId53" xr:uid="{92BBDF3F-4E8F-4963-AB3C-CD086F10343B}"/>
+    <hyperlink ref="B53" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/pcsubstance/?term=%22N-Methylperfluorobutanesulfonamide%22%5bCompleteSynonym%5d%20AND%20109968%5bStandardizedCID%5d" xr:uid="{A33A1726-513A-4C38-B714-02E3B0953908}"/>
+    <hyperlink ref="B54" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/pcsubstance/?term=%22N-ethyl%20perfluorobutane%20sulfonamide%22%5bCompleteSynonym%5d%20AND%2014661392%5bStandardizedCID%5d" xr:uid="{803FD2A4-E7EA-4B0B-AC19-150B16211E17}"/>
+    <hyperlink ref="D54" r:id="rId56" xr:uid="{C0023813-88B3-47D8-BD42-09B436F67B47}"/>
+    <hyperlink ref="D55" r:id="rId57" xr:uid="{2B495ACD-754A-448A-ABB1-BEC8F41A09DD}"/>
+    <hyperlink ref="D56" r:id="rId58" xr:uid="{D8FDA622-3F10-4FCF-8D9A-A4B4351DDEB9}"/>
+    <hyperlink ref="D57" r:id="rId59" xr:uid="{752AA5BC-C0E9-423B-95B7-60FFB3480F46}"/>
+    <hyperlink ref="D58" r:id="rId60" xr:uid="{F34326F1-53D0-4A7E-8ADE-9DDF6DC6D3C7}"/>
+    <hyperlink ref="B58" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/pcsubstance/?term=%22N-%5B3-(Dimethylamino)propyl%5D%20Perfluorohexanesulfonamide%20(%3E85%25)%22%5bCompleteSynonym%5d%20AND%20111913%5bStandardizedCID%5d" xr:uid="{DFD6CECD-7408-4454-B1A4-F57915391083}"/>
+    <hyperlink ref="A58" r:id="rId62" display="https://commonchemistry.cas.org/detail?cas_rn=50598-28-2" xr:uid="{9BB17CBF-CCC0-4DB2-B5A6-91053D1E0834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId63"/>
